--- a/Data/ReBuild Doors and Corners - 3262718980/3262718980_240922.xlsx
+++ b/Data/ReBuild Doors and Corners - 3262718980/3262718980_240922.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\ReBuild Doors and Corners - 3262718980\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\RimworldExtractor 0.9.1\PR#1194\ReBuild Doors and Corners - 3262718980\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8162566E-E6C3-455D-A44A-78CCDB8C75E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DB70E7-B51D-44E5-9570-1A72308BE23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="38340" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main_240922" sheetId="1" r:id="rId1"/>
@@ -36,54 +36,19 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>bjmi0</author>
-  </authors>
-  <commentList>
-    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-12-02에 새로 추가된 노드들 (6개)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F90" authorId="0" shapeId="0" xr:uid="{E3AAF73D-3671-4829-9BBB-0CFCCEDB208F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-12-02에 새로 추가된 노드들 (6개)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>RimWorldKorea</author>
   </authors>
   <commentList>
-    <comment ref="F72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="F72" authorId="0" shapeId="0" xr:uid="{F2B5F06E-B0F6-4E2E-8B5E-CBA99566E640}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
+            <charset val="129"/>
           </rPr>
           <t>바닐라</t>
         </r>
@@ -91,7 +56,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -101,9 +66,10 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
+            <charset val="129"/>
           </rPr>
           <t>노드</t>
         </r>
@@ -114,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="366">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -156,6 +122,9 @@
   </si>
   <si>
     <t>Walls</t>
+  </si>
+  <si>
+    <t>ModSettingsFramework.ModOptionCategoryDef+RB_Doors.label</t>
   </si>
   <si>
     <r>
@@ -170,13 +139,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>ModSettingsFramework.ModOptionCategoryDef+RB_Doors.label</t>
-  </si>
-  <si>
     <t>RB_Doors.label</t>
   </si>
   <si>
     <t>Doors</t>
+  </si>
+  <si>
+    <t>RecipeDef+RB_Make_GlassFromChunks.label</t>
   </si>
   <si>
     <r>
@@ -191,9 +160,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>RecipeDef+RB_Make_GlassFromChunks.label</t>
-  </si>
-  <si>
     <t>RecipeDef</t>
   </si>
   <si>
@@ -201,6 +167,9 @@
   </si>
   <si>
     <t>make glass from chunks</t>
+  </si>
+  <si>
+    <t>RecipeDef+RB_Make_GlassFromChunks.description</t>
   </si>
   <si>
     <r>
@@ -215,9 +184,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>RecipeDef+RB_Make_GlassFromChunks.description</t>
-  </si>
-  <si>
     <t>RB_Make_GlassFromChunks.description</t>
   </si>
   <si>
@@ -234,6 +200,9 @@
   </si>
   <si>
     <t>Making glass.</t>
+  </si>
+  <si>
+    <t>RecipeDef+RB_Make_BallisticGlassFromChunks.label</t>
   </si>
   <si>
     <r>
@@ -248,13 +217,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>RecipeDef+RB_Make_BallisticGlassFromChunks.label</t>
-  </si>
-  <si>
     <t>RB_Make_BallisticGlassFromChunks.label</t>
   </si>
   <si>
     <t>make ballistic glass</t>
+  </si>
+  <si>
+    <t>RecipeDef+RB_Make_BallisticGlassFromChunks.description</t>
   </si>
   <si>
     <r>
@@ -269,9 +238,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>RecipeDef+RB_Make_BallisticGlassFromChunks.description</t>
-  </si>
-  <si>
     <t>RB_Make_BallisticGlassFromChunks.description</t>
   </si>
   <si>
@@ -288,6 +254,9 @@
   </si>
   <si>
     <t>Making ballistic glass.</t>
+  </si>
+  <si>
+    <t>TerrainDef+RB_FinePlankWood.description</t>
   </si>
   <si>
     <r>
@@ -302,9 +271,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>TerrainDef+RB_FinePlankWood.description</t>
-  </si>
-  <si>
     <t>TerrainDef</t>
   </si>
   <si>
@@ -701,10 +667,331 @@
     <t>RB_GlassAutodoor.description</t>
   </si>
   <si>
-    <t>Divides rooms. Powered operation allows people to move through the door without slowing down.</t>
+    <t>ModSettingsFramework.ModOptionCategoryDef+RB_Floors.label</t>
   </si>
   <si>
     <t>ThingDef+RB_LargeOrnateDoor.label</t>
+  </si>
+  <si>
+    <t>RB_LargeOrnateDoor.label</t>
+  </si>
+  <si>
+    <t>large ornate door</t>
+  </si>
+  <si>
+    <t>대형 화려한 문</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_LargeOrnateDoor.description</t>
+  </si>
+  <si>
+    <t>RB_LargeOrnateDoor.description</t>
+  </si>
+  <si>
+    <t>Divides rooms. An intricately-carved door, decorated with gold. This large, heavy door requires adjacent walls to function.</t>
+  </si>
+  <si>
+    <t>방을 나눕니다. 복잡한 문양과 금으로 장식되어있습니다. 이 거대하고 무거운 문은 이를 지지해주는 벽이 있어야 제대로 사용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_OverwallFireplace.label</t>
+  </si>
+  <si>
+    <t>RB_OverwallFireplace.label</t>
+  </si>
+  <si>
+    <t>wall-mounted fireplace</t>
+  </si>
+  <si>
+    <t>벽걸이 벽난로</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_OverwallFireplace.description</t>
+  </si>
+  <si>
+    <t>RB_OverwallFireplace.description</t>
+  </si>
+  <si>
+    <t>A stone fireplace build into an existing wall. As with all heat sources, it must be placed indoors so it has a closed space to heat. Refuelable with wood.</t>
+  </si>
+  <si>
+    <t>벽걸이형 석재 벽난로입니다. 다른 열원들과 마찬가지로 방을 덥히기 위해선 밀폐된 공간에 배치되어야 합니다. 나무를 채워넣을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_Fireplace.label</t>
+  </si>
+  <si>
+    <t>RB_Fireplace.label</t>
+  </si>
+  <si>
+    <t>fireplace</t>
+  </si>
+  <si>
+    <t>벽난로</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_Fireplace.description</t>
+  </si>
+  <si>
+    <t>RB_Fireplace.description</t>
+  </si>
+  <si>
+    <t>A stone fireplace. As with all heat sources, it must be placed indoors so it has a closed space to heat. Refuelable with wood.</t>
+  </si>
+  <si>
+    <t>석재 벽난로입니다. 다른 열원들과 마찬가지로 방을 덥히기 위해선 밀폐된 공간에 배치되어야 합니다. 나무를 채워넣을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_OverwallArmor.label</t>
+  </si>
+  <si>
+    <t>RB_OverwallArmor.label</t>
+  </si>
+  <si>
+    <t>wall armor</t>
+  </si>
+  <si>
+    <t>벽 보호구</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_OverwallArmor.description</t>
+  </si>
+  <si>
+    <t>RB_OverwallArmor.description</t>
+  </si>
+  <si>
+    <t>A durable, reinforced armor that seamlessly integrates with existing walls. Provides enhanced protection against external threats while maintaining structural integrity. It will protect the wall under it from damage until destroyed. Must be constructed on an existing wall.</t>
+  </si>
+  <si>
+    <t>벽을 강화하는 보호구입니다. 구조적으로 기존 벽과 완벽하게 통합되며 외부 위협에 대한 보호 기능을 강화합니다. 파괴될 때까지 설치된 벽을 손상으로부터 보호합니다. 벽에 설치해야 합니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_Glass.label</t>
+  </si>
+  <si>
+    <t>RB_Glass.label</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>유리</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_Glass.description</t>
+  </si>
+  <si>
+    <t>RB_Glass.description</t>
+  </si>
+  <si>
+    <t>Transparent, brittle sheets of silica-based material, widely utilised for windows and various other applications where clarity and rigidity are essential.</t>
+  </si>
+  <si>
+    <t>투명하고 부서지기 쉬운 실리카 기반 소재입니다. 창문을 포함해 다양한 분야에 널리 활용됩니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_BallisticGlass.label</t>
+  </si>
+  <si>
+    <t>RB_BallisticGlass.label</t>
+  </si>
+  <si>
+    <t>ballistic glass</t>
+  </si>
+  <si>
+    <t>방탄 유리</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_BallisticGlass.description</t>
+  </si>
+  <si>
+    <t>RB_BallisticGlass.description</t>
+  </si>
+  <si>
+    <t>Toughened, multi-layered transparent armor capable of withstanding bullets and explosions, crucial for protecting high-value targets and ensuring safety in hostile environments.</t>
+  </si>
+  <si>
+    <t>총알과 폭발을 견디도록 강화된 압축 유리입니다. 자산 보호와 안전을 위해 사용됩니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_Filth_GlassShards.label</t>
+  </si>
+  <si>
+    <t>RB_Filth_GlassShards.label</t>
+  </si>
+  <si>
+    <t>glass shards</t>
+  </si>
+  <si>
+    <t>유리 파편</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_Filth_BallisticGlassShards.label</t>
+  </si>
+  <si>
+    <t>RB_Filth_BallisticGlassShards.label</t>
+  </si>
+  <si>
+    <t>DesignatorDropdownGroupDef+RB_Floor_Tile_GrateMetal.label</t>
+  </si>
+  <si>
+    <t>DesignatorDropdownGroupDef</t>
+  </si>
+  <si>
+    <t>RB_Floor_Tile_GrateMetal.label</t>
+  </si>
+  <si>
+    <t>metal grate tile</t>
+  </si>
+  <si>
+    <t>금속 격자 바닥</t>
+  </si>
+  <si>
+    <t>DesignatorDropdownGroupDef+RB_Floor_Tile_StuddedMetal.label</t>
+  </si>
+  <si>
+    <t>RB_Floor_Tile_StuddedMetal.label</t>
+  </si>
+  <si>
+    <t>metal studded tile</t>
+  </si>
+  <si>
+    <t>금속 단추 바닥</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_LargeSecurityDoor.label</t>
+  </si>
+  <si>
+    <t>RB_LargeSecurityDoor.label</t>
+  </si>
+  <si>
+    <t>Anomaly</t>
+  </si>
+  <si>
+    <t>large security door</t>
+  </si>
+  <si>
+    <t>대형 보안 문</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_LargeSecurityDoor.description</t>
+  </si>
+  <si>
+    <t>RB_LargeSecurityDoor.description</t>
+  </si>
+  <si>
+    <t>A heavily reinforced door. It is slow to open and requires electricity, but is very strong. It's a good choice if you want to keep something dangerous out - or in. The door requires walls on either side to function.</t>
+  </si>
+  <si>
+    <t>튼튼하게 강화된 문입니다. 느리게 열리며 전기가 필요하지만, 매우 강합니다. 뭔가 위험한 것의 출입을 통제하고 싶다면 좋은 선택일 것입니다. 문이 기능하려면 양쪽에 벽이 필요합니다.</t>
+  </si>
+  <si>
+    <t>Keyed+RE.MustPlaceHeaterWithFreeSpaces</t>
+  </si>
+  <si>
+    <t>Keyed</t>
+  </si>
+  <si>
+    <t>RE.MustPlaceHeaterWithFreeSpaces</t>
+  </si>
+  <si>
+    <t>The hot side of the fireplace must be exposed.</t>
+  </si>
+  <si>
+    <t>벽난로의 열원이 노출되어야 합니다.</t>
+  </si>
+  <si>
+    <t>Keyed+RE.SetTerrainEdgesLabel</t>
+  </si>
+  <si>
+    <t>RE.SetTerrainEdgesLabel</t>
+  </si>
+  <si>
+    <t>Set terrain edges</t>
+  </si>
+  <si>
+    <t>지형 모서리 설정</t>
+  </si>
+  <si>
+    <t>Keyed+RE.SetTerrainEdgesDesc</t>
+  </si>
+  <si>
+    <t>RE.SetTerrainEdgesDesc</t>
+  </si>
+  <si>
+    <t>Terrain rendered in this area will have custom edges.</t>
+  </si>
+  <si>
+    <t>이 영역에 렌더링되는 지형에 모서리 설정을 적용합니다.</t>
+  </si>
+  <si>
+    <t>Keyed+RE.ResetTerrainEdgesLabel</t>
+  </si>
+  <si>
+    <t>RE.ResetTerrainEdgesLabel</t>
+  </si>
+  <si>
+    <t>Reset terrain edges</t>
+  </si>
+  <si>
+    <t>지형 모서리 초기화</t>
+  </si>
+  <si>
+    <t>Keyed+RE.ResetTerrainEdgesDesc</t>
+  </si>
+  <si>
+    <t>RE.ResetTerrainEdgesDesc</t>
+  </si>
+  <si>
+    <t>Reset custom terrain edge area.</t>
+  </si>
+  <si>
+    <t>지형 모서리 설정을 초기화합니다.</t>
+  </si>
+  <si>
+    <t>Keyed+RE.TerrainEdgeTypeHard</t>
+  </si>
+  <si>
+    <t>RE.TerrainEdgeTypeHard</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>단단하게</t>
+  </si>
+  <si>
+    <t>Keyed+RE.TerrainEdgeTypeFade</t>
+  </si>
+  <si>
+    <t>RE.TerrainEdgeTypeFade</t>
+  </si>
+  <si>
+    <t>Fade</t>
+  </si>
+  <si>
+    <t>희미하게</t>
+  </si>
+  <si>
+    <t>Keyed+RE.TerrainEdgeTypeFadeRough</t>
+  </si>
+  <si>
+    <t>RE.TerrainEdgeTypeFadeRough</t>
+  </si>
+  <si>
+    <t>Fade (rough)</t>
+  </si>
+  <si>
+    <t>희미하게 (거침)</t>
+  </si>
+  <si>
+    <t>Keyed+RE.WallArmorMustBePlacedOnWall</t>
+  </si>
+  <si>
+    <t>RE.WallArmorMustBePlacedOnWall</t>
+  </si>
+  <si>
+    <t>Wall armor requires pre-existing wall to be constructed.</t>
   </si>
   <si>
     <r>
@@ -714,330 +1001,9 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>방을 나눕니다. 전기로 작동하며 문 통과시 이동속도 감소가 적거나 없습니다. 빛을 차단하지 않습니다.</t>
+      <t>ThingDef</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB_LargeOrnateDoor.label</t>
-  </si>
-  <si>
-    <t>large ornate door</t>
-  </si>
-  <si>
-    <t>대형 화려한 문</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_LargeOrnateDoor.description</t>
-  </si>
-  <si>
-    <t>RB_LargeOrnateDoor.description</t>
-  </si>
-  <si>
-    <t>Divides rooms. An intricately-carved door, decorated with gold. This large, heavy door requires adjacent walls to function.</t>
-  </si>
-  <si>
-    <t>방을 나눕니다. 복잡한 문양과 금으로 장식되어있습니다. 이 거대하고 무거운 문은 이를 지지해주는 벽이 있어야 제대로 사용할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_OverwallFireplace.label</t>
-  </si>
-  <si>
-    <t>RB_OverwallFireplace.label</t>
-  </si>
-  <si>
-    <t>wall-mounted fireplace</t>
-  </si>
-  <si>
-    <t>벽걸이 벽난로</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_OverwallFireplace.description</t>
-  </si>
-  <si>
-    <t>RB_OverwallFireplace.description</t>
-  </si>
-  <si>
-    <t>A stone fireplace build into an existing wall. As with all heat sources, it must be placed indoors so it has a closed space to heat. Refuelable with wood.</t>
-  </si>
-  <si>
-    <t>벽걸이형 석재 벽난로입니다. 다른 열원들과 마찬가지로 방을 덥히기 위해선 밀폐된 공간에 배치되어야 합니다. 나무를 채워넣을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_Fireplace.label</t>
-  </si>
-  <si>
-    <t>RB_Fireplace.label</t>
-  </si>
-  <si>
-    <t>fireplace</t>
-  </si>
-  <si>
-    <t>벽난로</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_Fireplace.description</t>
-  </si>
-  <si>
-    <t>RB_Fireplace.description</t>
-  </si>
-  <si>
-    <t>A stone fireplace. As with all heat sources, it must be placed indoors so it has a closed space to heat. Refuelable with wood.</t>
-  </si>
-  <si>
-    <t>석재 벽난로입니다. 다른 열원들과 마찬가지로 방을 덥히기 위해선 밀폐된 공간에 배치되어야 합니다. 나무를 채워넣을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_OverwallArmor.label</t>
-  </si>
-  <si>
-    <t>RB_OverwallArmor.label</t>
-  </si>
-  <si>
-    <t>wall armor</t>
-  </si>
-  <si>
-    <t>벽 보호구</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_OverwallArmor.description</t>
-  </si>
-  <si>
-    <t>RB_OverwallArmor.description</t>
-  </si>
-  <si>
-    <t>A durable, reinforced armor that seamlessly integrates with existing walls. Provides enhanced protection against external threats while maintaining structural integrity. It will protect the wall under it from damage until destroyed. Must be constructed on an existing wall.</t>
-  </si>
-  <si>
-    <t>벽을 강화하는 보호구입니다. 구조적으로 기존 벽과 완벽하게 통합되며 외부 위협에 대한 보호 기능을 강화합니다. 파괴될 때까지 설치된 벽을 손상으로부터 보호합니다. 벽에 설치해야 합니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_Glass.label</t>
-  </si>
-  <si>
-    <t>RB_Glass.label</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>유리</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_Glass.description</t>
-  </si>
-  <si>
-    <t>RB_Glass.description</t>
-  </si>
-  <si>
-    <t>Transparent, brittle sheets of silica-based material, widely utilised for windows and various other applications where clarity and rigidity are essential.</t>
-  </si>
-  <si>
-    <t>투명하고 부서지기 쉬운 실리카 기반 소재입니다. 창문을 포함해 다양한 분야에 널리 활용됩니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_BallisticGlass.label</t>
-  </si>
-  <si>
-    <t>RB_BallisticGlass.label</t>
-  </si>
-  <si>
-    <t>ballistic glass</t>
-  </si>
-  <si>
-    <t>방탄 유리</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_BallisticGlass.description</t>
-  </si>
-  <si>
-    <t>RB_BallisticGlass.description</t>
-  </si>
-  <si>
-    <t>Toughened, multi-layered transparent armor capable of withstanding bullets and explosions, crucial for protecting high-value targets and ensuring safety in hostile environments.</t>
-  </si>
-  <si>
-    <t>총알과 폭발을 견디도록 강화된 압축 유리입니다. 자산 보호와 안전을 위해 사용됩니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_Filth_GlassShards.label</t>
-  </si>
-  <si>
-    <t>RB_Filth_GlassShards.label</t>
-  </si>
-  <si>
-    <t>glass shards</t>
-  </si>
-  <si>
-    <t>유리 파편</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_Filth_BallisticGlassShards.label</t>
-  </si>
-  <si>
-    <t>RB_Filth_BallisticGlassShards.label</t>
-  </si>
-  <si>
-    <t>DesignatorDropdownGroupDef+RB_Floor_Tile_GrateMetal.label</t>
-  </si>
-  <si>
-    <t>DesignatorDropdownGroupDef</t>
-  </si>
-  <si>
-    <t>RB_Floor_Tile_GrateMetal.label</t>
-  </si>
-  <si>
-    <t>metal grate tile</t>
-  </si>
-  <si>
-    <t>금속 격자 바닥</t>
-  </si>
-  <si>
-    <t>DesignatorDropdownGroupDef+RB_Floor_Tile_StuddedMetal.label</t>
-  </si>
-  <si>
-    <t>RB_Floor_Tile_StuddedMetal.label</t>
-  </si>
-  <si>
-    <t>metal studded tile</t>
-  </si>
-  <si>
-    <t>금속 단추 바닥</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_LargeSecurityDoor.label</t>
-  </si>
-  <si>
-    <t>RB_LargeSecurityDoor.label</t>
-  </si>
-  <si>
-    <t>Anomaly</t>
-  </si>
-  <si>
-    <t>large security door</t>
-  </si>
-  <si>
-    <t>대형 보안 문</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_LargeSecurityDoor.description</t>
-  </si>
-  <si>
-    <t>RB_LargeSecurityDoor.description</t>
-  </si>
-  <si>
-    <t>A heavily reinforced door. It is slow to open and requires electricity, but is very strong. It's a good choice if you want to keep something dangerous out - or in. The door requires walls on either side to function.</t>
-  </si>
-  <si>
-    <t>튼튼하게 강화된 문입니다. 느리게 열리며 전기가 필요하지만, 매우 강합니다. 뭔가 위험한 것의 출입을 통제하고 싶다면 좋은 선택일 것입니다. 문이 기능하려면 양쪽에 벽이 필요합니다.</t>
-  </si>
-  <si>
-    <t>Keyed+RE.MustPlaceHeaterWithFreeSpaces</t>
-  </si>
-  <si>
-    <t>Keyed</t>
-  </si>
-  <si>
-    <t>RE.MustPlaceHeaterWithFreeSpaces</t>
-  </si>
-  <si>
-    <t>The hot side of the fireplace must be exposed.</t>
-  </si>
-  <si>
-    <t>벽난로의 열원이 노출되어야 합니다.</t>
-  </si>
-  <si>
-    <t>Keyed+RE.SetTerrainEdgesLabel</t>
-  </si>
-  <si>
-    <t>RE.SetTerrainEdgesLabel</t>
-  </si>
-  <si>
-    <t>Set terrain edges</t>
-  </si>
-  <si>
-    <t>지형 모서리 설정</t>
-  </si>
-  <si>
-    <t>Keyed+RE.SetTerrainEdgesDesc</t>
-  </si>
-  <si>
-    <t>RE.SetTerrainEdgesDesc</t>
-  </si>
-  <si>
-    <t>Terrain rendered in this area will have custom edges.</t>
-  </si>
-  <si>
-    <t>이 영역에 렌더링되는 지형에 모서리 설정을 적용합니다.</t>
-  </si>
-  <si>
-    <t>Keyed+RE.ResetTerrainEdgesLabel</t>
-  </si>
-  <si>
-    <t>RE.ResetTerrainEdgesLabel</t>
-  </si>
-  <si>
-    <t>Reset terrain edges</t>
-  </si>
-  <si>
-    <t>지형 모서리 초기화</t>
-  </si>
-  <si>
-    <t>Keyed+RE.ResetTerrainEdgesDesc</t>
-  </si>
-  <si>
-    <t>RE.ResetTerrainEdgesDesc</t>
-  </si>
-  <si>
-    <t>Reset custom terrain edge area.</t>
-  </si>
-  <si>
-    <t>지형 모서리 설정을 초기화합니다.</t>
-  </si>
-  <si>
-    <t>Keyed+RE.TerrainEdgeTypeHard</t>
-  </si>
-  <si>
-    <t>RE.TerrainEdgeTypeHard</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>단단하게</t>
-  </si>
-  <si>
-    <t>Keyed+RE.TerrainEdgeTypeFade</t>
-  </si>
-  <si>
-    <t>RE.TerrainEdgeTypeFade</t>
-  </si>
-  <si>
-    <t>Fade</t>
-  </si>
-  <si>
-    <t>희미하게</t>
-  </si>
-  <si>
-    <t>Keyed+RE.TerrainEdgeTypeFadeRough</t>
-  </si>
-  <si>
-    <t>RE.TerrainEdgeTypeFadeRough</t>
-  </si>
-  <si>
-    <t>Fade (rough)</t>
-  </si>
-  <si>
-    <t>희미하게 (거침)</t>
-  </si>
-  <si>
-    <t>Keyed+RE.WallArmorMustBePlacedOnWall</t>
-  </si>
-  <si>
-    <t>RE.WallArmorMustBePlacedOnWall</t>
-  </si>
-  <si>
-    <t>Wall armor requires pre-existing wall to be constructed.</t>
   </si>
   <si>
     <r>
@@ -1064,48 +1030,24 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>ThingDef</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>ElectricSmelter.description</t>
   </si>
   <si>
     <t>Extracts usable metal from slag chunks and other mixed metal items, as well as refines stone chunks into glass. Consumes a lot of power.</t>
   </si>
   <si>
-    <t>ModSettingsFramework.ModOptionCategoryDef+RB_Floors.label</t>
-  </si>
-  <si>
     <t>RB_Floors.label</t>
   </si>
   <si>
+    <t>Divides rooms. Powered operation allows people to move through the door without slowing down.</t>
+  </si>
+  <si>
     <t>Floors</t>
   </si>
   <si>
     <t>ModSettingsFramework.ModOptionCategoryDef+RB_Integrations.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>바닥</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>RB_Integrations.label</t>
   </si>
   <si>
@@ -1115,18 +1057,6 @@
     <t>ThingDef+RB_FloorLamp.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>모드 통합</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>RB_FloorLamp.label</t>
   </si>
   <si>
@@ -1136,18 +1066,6 @@
     <t>ThingDef+RB_FloorLamp.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>바닥등</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>RB_FloorLamp.description</t>
   </si>
   <si>
@@ -1157,18 +1075,6 @@
     <t>ThingDef+RB_ReinforcedGlassAutodoor.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>전기를 사용하여 공간을 밝히는 바닥 설치형 전등입니다. 일반 전등보다 덜 강력하지만 어떤 바닥에도 설치할 수 있습니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>RB_ReinforcedGlassAutodoor.label</t>
   </si>
   <si>
@@ -1178,36 +1084,12 @@
     <t>ThingDef+RB_ReinforcedGlassAutodoor.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>강화 유리 자동문</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>RB_ReinforcedGlassAutodoor.description</t>
   </si>
   <si>
     <t>ThingDef+RB_DoubleDoor.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>방을 나눕니다. 전기로 작동하며 문 통과시 이동속도 감소가 적거나 없습니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>RB_DoubleDoor.label</t>
   </si>
   <si>
@@ -1217,18 +1099,6 @@
     <t>ThingDef+RB_DoubleDoor.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>이중문</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>RB_DoubleDoor.description</t>
   </si>
   <si>
@@ -1238,18 +1108,6 @@
     <t>ThingDef+RB_DoubleAutodoor.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>방을 나눕니다. 수동으로 열고 닫으며 문 통과시 이동속도가 느려집니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>RB_DoubleAutodoor.label</t>
   </si>
   <si>
@@ -1259,484 +1117,171 @@
     <t>ThingDef+RB_DoubleAutodoor.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>이중 자동문</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>RB_DoubleAutodoor.description</t>
   </si>
   <si>
+    <t>ThingDef+RB_ACUnitFloor.label</t>
+  </si>
+  <si>
+    <t>RB_ACUnitFloor.label</t>
+  </si>
+  <si>
+    <t>Vanilla Temperature Expanded</t>
+  </si>
+  <si>
+    <t>floor AC unit</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_ACUnitFloor.description</t>
+  </si>
+  <si>
+    <t>RB_ACUnitFloor.description</t>
+  </si>
+  <si>
+    <t>An air-conditioning machine that fits into a floor tile. Emits either cool or warm air in the same direction, depending on the current temperature of the room. Unless unlinked from the network settings, it will aim to achieve the temperature specified in the AC control unit. Needs to be connected to the AC control unit via air ducts.</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_Ship_Beam_Glass.label</t>
+  </si>
+  <si>
+    <t>RB_Ship_Beam_Glass.label</t>
+  </si>
+  <si>
+    <t>Save Our Ship 2</t>
+  </si>
+  <si>
+    <t>ship hull (glass)</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_Ship_Beam_Glass.description</t>
+  </si>
+  <si>
+    <t>RB_Ship_Beam_Glass.description</t>
+  </si>
+  <si>
+    <t>The outer structural elements of a ship's hull. Does not include conduits for power or coolant.</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_Ship_Beam_Viewport.label</t>
+  </si>
+  <si>
+    <t>RB_Ship_Beam_Viewport.label</t>
+  </si>
+  <si>
+    <t>ship hull (viewport)</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_Ship_Beam_Viewport.description</t>
+  </si>
+  <si>
+    <t>RB_Ship_Beam_Viewport.description</t>
+  </si>
+  <si>
+    <t>바닥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모드 통합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기를 사용하여 공간을 밝히는 바닥 설치형 전등입니다. 일반 전등보다 덜 강력하지만 어떤 바닥에도 설치할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 유리 자동문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>방을 나눕니다. 전기로 작동하며 문 통과시 이동속도 감소가 적거나 없습니다.</t>
   </si>
   <si>
-    <t>ThingDef+RB_ACUnitFloor.label</t>
-  </si>
-  <si>
-    <t>RB_ACUnitFloor.label</t>
-  </si>
-  <si>
-    <t>Vanilla Temperature Expanded</t>
-  </si>
-  <si>
-    <t>floor AC unit</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_ACUnitFloor.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>바닥 냉방기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB_ACUnitFloor.description</t>
-  </si>
-  <si>
-    <t>An air-conditioning machine that fits into a floor tile. Emits either cool or warm air in the same direction, depending on the current temperature of the room. Unless unlinked from the network settings, it will aim to achieve the temperature specified in the AC control unit. Needs to be connected to the AC control unit via air ducts.</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_Ship_Beam_Glass.label</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>바닥에 설치할 수 있는 냉방기입니다. 방의 현재 온도에 따라서 뜨겁거나 찬 공기를 같은 방향으로 내보낼 수 있습니다.\n\n독립 제어 모드로 설정하지 않으면 방의 온도를 중앙 제어기에서 지정한 온도에 맞추려고 할 것입니다. 공조 파이프를 통해 공조 제어기와 연결되어야 합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB_Ship_Beam_Glass.label</t>
-  </si>
-  <si>
-    <t>Save Our Ship 2</t>
-  </si>
-  <si>
-    <t>ship hull (glass)</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_Ship_Beam_Glass.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>선체 (유리)</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB_Ship_Beam_Glass.description</t>
-  </si>
-  <si>
-    <t>The outer structural elements of a ship's hull. Does not include conduits for power or coolant.</t>
+    <t>방을 나눕니다. 전기로 작동하며 문 통과시 이동속도 감소가 적거나 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이중문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이중 자동문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방을 나눕니다. 수동으로 열고 닫으며 문 통과시 이동속도가 느려집니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방을 나눕니다. 전기로 작동하며 문 통과시 이동속도 감소가 적거나 없습니다. 빛을 차단하지 않습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥 냉방기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥에 설치할 수 있는 냉방기입니다. 방의 현재 온도에 따라서 뜨겁거나 찬 공기를 같은 방향으로 내보낼 수 있습니다.\n\n독립 제어 모드로 설정하지 않으면 방의 온도를 중앙 제어기에서 지정한 온도에 맞추려고 할 것입니다. 공조 파이프를 통해 공조 제어기와 연결되어야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>함선의 외부 골조입니다. 전선 및 냉각 배관이 포함되지 않았습니다.</t>
   </si>
   <si>
-    <t>ThingDef+RB_Ship_Beam_Viewport.label</t>
-  </si>
-  <si>
-    <t>RB_Ship_Beam_Viewport.label</t>
-  </si>
-  <si>
-    <t>ship hull (viewport)</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_Ship_Beam_Viewport.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>선체 (전망창)</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB_Ship_Beam_Viewport.description</t>
+    <t>선체 (유리)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선체 (전망창)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고철 덩어리나 금속이 혼합된 물품에서 금속을 추출하거나, 바위 덩어리를 유리로 가공합니다. 전기가 많이 소비됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+ElectricSmelter.description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 위에 설치해야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방을 나눕니다. 전기로 작동하며 문 통과시 이동속도 감소가 적거나 없습니다. 빛을 차단하지 않습니다.</t>
   </si>
   <si>
     <t>Divides rooms. Powered operation allows people to move through the door without slowing down. Does not block light.</t>
   </si>
   <si>
-    <t>방을 나눕니다. 전기로 작동하며 문 통과시 이동속도 감소가 적거나 없습니다. 빛을 차단하지 않습니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_CellWall.label</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>고철 덩어리나 금속이 혼합된 물품에서 금속을 추출하거나, 바위 덩어리를 유리로 가공합니다. 전기가 많이 소비됩니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB_CellWall.label</t>
-  </si>
-  <si>
-    <t>cell wall</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_CellWall.description</t>
-  </si>
-  <si>
-    <t>RB_CellWall.description</t>
-  </si>
-  <si>
-    <t>TerrainDef+RB_PavedTile_Transhumanist.label</t>
-  </si>
-  <si>
-    <t>RB_PavedTile_Transhumanist.label</t>
-  </si>
-  <si>
-    <t>Ideology</t>
-  </si>
-  <si>
-    <t>paved hex tile</t>
-  </si>
-  <si>
-    <t>TerrainDef+RB_PavedTile_Transhumanist.description</t>
-  </si>
-  <si>
-    <t>RB_PavedTile_Transhumanist.description</t>
-  </si>
-  <si>
-    <t>Concrete tiles with a hexagonal pattern for that ultra-technological look. Cheap, but neutral in terms of looks and slow to build.</t>
-  </si>
-  <si>
-    <t>TerrainDef+RB_WoodPlankFloor_Transhumanist.label</t>
-  </si>
-  <si>
-    <t>RB_WoodPlankFloor_Transhumanist.label</t>
-  </si>
-  <si>
-    <t>wood hex floor</t>
-  </si>
-  <si>
-    <t>TerrainDef+RB_WoodPlankFloor_Transhumanist.description</t>
-  </si>
-  <si>
-    <t>RB_WoodPlankFloor_Transhumanist.description</t>
-  </si>
-  <si>
-    <t>Wood plank flooring with a hexagonal pattern for that ultra-technological look. While it is quick to lay, it is also very flammable.</t>
-  </si>
-  <si>
-    <t>쇠창살로 이루어진 지나갈 수 없는 벽입니다.</t>
+    <t>방탄 유리 제작 중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>An impassable wall consisting of metal bars.</t>
+    <t>방탄 유리 제작</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>금속 격벽</t>
+    <t>유리 제작 중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>포장된 육각 타일</t>
+    <t>유리 제작</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>나무 육각 바닥</t>
+    <t>문</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>육각형 패턴의 콘크리트 타일로, 초첨단 기술적 외관을 제공합니다. 저렴하지만 외관은 중립적이며 건설 속도가 느립니다.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초첨단</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기술적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>외관을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>육각형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>패턴의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>판자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바닥재입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설치가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빠르지만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">매우 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취약합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
+    <t>벽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1744,7 +1289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1764,45 +1309,19 @@
       <charset val="129"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1840,13 +1359,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2148,14 +1666,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C79" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="64.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.81640625" style="1" bestFit="1" customWidth="1"/>
@@ -2167,7 +1685,7 @@
     <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +1705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2204,7 +1722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2218,12 +1736,12 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -2235,12 +1753,12 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -2252,12 +1770,12 @@
         <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -2272,7 +1790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2286,12 +1804,12 @@
         <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -2303,12 +1821,12 @@
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
@@ -2323,7 +1841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2337,12 +1855,12 @@
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>45</v>
@@ -2357,7 +1875,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -2374,7 +1892,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -2391,7 +1909,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2408,7 +1926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2425,7 +1943,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,7 +1960,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -2459,7 +1977,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -2476,7 +1994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -2493,7 +2011,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -2510,7 +2028,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -2527,7 +2045,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -2544,7 +2062,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -2561,7 +2079,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
@@ -2578,7 +2096,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>99</v>
       </c>
@@ -2595,7 +2113,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>103</v>
       </c>
@@ -2612,7 +2130,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -2629,7 +2147,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
@@ -2646,7 +2164,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>115</v>
       </c>
@@ -2663,7 +2181,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>119</v>
       </c>
@@ -2680,7 +2198,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
@@ -2697,7 +2215,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
@@ -2714,7 +2232,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
@@ -2731,7 +2249,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>135</v>
       </c>
@@ -2748,7 +2266,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>139</v>
       </c>
@@ -2765,7 +2283,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>143</v>
       </c>
@@ -2782,7 +2300,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>147</v>
       </c>
@@ -2799,7 +2317,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>151</v>
       </c>
@@ -2816,7 +2334,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>155</v>
       </c>
@@ -2833,7 +2351,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
@@ -2850,7 +2368,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>163</v>
       </c>
@@ -2867,7 +2385,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>167</v>
       </c>
@@ -2884,7 +2402,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>171</v>
       </c>
@@ -2901,7 +2419,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>175</v>
       </c>
@@ -2912,13 +2430,13 @@
         <v>176</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>178</v>
       </c>
@@ -2926,885 +2444,770 @@
         <v>123</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F60" s="1" t="s">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F61" s="1" t="s">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F62" s="1" t="s">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F63" s="1" t="s">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F64" s="1" t="s">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F65" s="1" t="s">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F67" s="1" t="s">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F69" s="1" t="s">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F70" s="1" t="s">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="E72" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="B75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="E75" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B76" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F76" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F77" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="B78" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F79" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F78" s="1" t="s">
+      <c r="F80" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F81" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="B82" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="E83" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="B84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="D84" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F84" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F82" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
+      <c r="F85" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="B86" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D86" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="F86" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="B87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="F87" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="B88" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F93" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3816,7 +3219,7 @@
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="64.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.81640625" style="1" bestFit="1" customWidth="1"/>
@@ -3824,11 +3227,10 @@
     <col min="4" max="4" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="36.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3848,7 +3250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3865,7 +3267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3879,12 +3281,12 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -3896,12 +3298,12 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -3913,12 +3315,12 @@
         <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -3933,7 +3335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3947,12 +3349,12 @@
         <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -3964,12 +3366,12 @@
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
@@ -3984,7 +3386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3998,12 +3400,12 @@
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>45</v>
@@ -4018,7 +3420,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -4035,7 +3437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -4052,7 +3454,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -4069,7 +3471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -4086,7 +3488,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -4103,7 +3505,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -4120,7 +3522,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -4137,7 +3539,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -4154,7 +3556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -4171,7 +3573,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -4188,7 +3590,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -4205,7 +3607,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -4222,7 +3624,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
@@ -4239,7 +3641,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>99</v>
       </c>
@@ -4256,7 +3658,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>103</v>
       </c>
@@ -4273,7 +3675,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -4290,7 +3692,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
@@ -4307,7 +3709,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>115</v>
       </c>
@@ -4324,7 +3726,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>119</v>
       </c>
@@ -4341,7 +3743,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
@@ -4358,7 +3760,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
@@ -4375,7 +3777,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
@@ -4392,7 +3794,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>135</v>
       </c>
@@ -4409,7 +3811,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>139</v>
       </c>
@@ -4426,7 +3828,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>143</v>
       </c>
@@ -4443,7 +3845,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>147</v>
       </c>
@@ -4460,7 +3862,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>151</v>
       </c>
@@ -4477,7 +3879,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>155</v>
       </c>
@@ -4494,7 +3896,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
@@ -4511,7 +3913,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>163</v>
       </c>
@@ -4528,7 +3930,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>167</v>
       </c>
@@ -4545,7 +3947,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>171</v>
       </c>
@@ -4562,7 +3964,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>175</v>
       </c>
@@ -4573,13 +3975,13 @@
         <v>176</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>178</v>
       </c>
@@ -4587,478 +3989,478 @@
         <v>123</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F60" s="1" t="s">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F61" s="1" t="s">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F62" s="1" t="s">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F63" s="1" t="s">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F64" s="1" t="s">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F65" s="1" t="s">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F67" s="1" t="s">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F69" s="1" t="s">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F70" s="1" t="s">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>288</v>
+        <v>356</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ReBuild Doors and Corners - 3262718980/3262718980_240922.xlsx
+++ b/Data/ReBuild Doors and Corners - 3262718980/3262718980_240922.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\RimworldExtractor 0.9.1\PR#1194\ReBuild Doors and Corners - 3262718980\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\ReBuild Doors and Corners - 3262718980\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DB70E7-B51D-44E5-9570-1A72308BE23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8162566E-E6C3-455D-A44A-78CCDB8C75E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="38340" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main_240922" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,54 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>bjmi0</author>
+  </authors>
+  <commentList>
+    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-02에 새로 추가된 노드들 (6개)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F90" authorId="0" shapeId="0" xr:uid="{E3AAF73D-3671-4829-9BBB-0CFCCEDB208F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-02에 새로 추가된 노드들 (6개)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>RimWorldKorea</author>
   </authors>
   <commentList>
-    <comment ref="F72" authorId="0" shapeId="0" xr:uid="{F2B5F06E-B0F6-4E2E-8B5E-CBA99566E640}">
+    <comment ref="F72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>바닐라</t>
         </r>
@@ -56,7 +91,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -66,10 +101,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>노드</t>
         </r>
@@ -80,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="382">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -122,9 +156,6 @@
   </si>
   <si>
     <t>Walls</t>
-  </si>
-  <si>
-    <t>ModSettingsFramework.ModOptionCategoryDef+RB_Doors.label</t>
   </si>
   <si>
     <r>
@@ -139,13 +170,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>ModSettingsFramework.ModOptionCategoryDef+RB_Doors.label</t>
+  </si>
+  <si>
     <t>RB_Doors.label</t>
   </si>
   <si>
     <t>Doors</t>
-  </si>
-  <si>
-    <t>RecipeDef+RB_Make_GlassFromChunks.label</t>
   </si>
   <si>
     <r>
@@ -160,6 +191,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>RecipeDef+RB_Make_GlassFromChunks.label</t>
+  </si>
+  <si>
     <t>RecipeDef</t>
   </si>
   <si>
@@ -167,9 +201,6 @@
   </si>
   <si>
     <t>make glass from chunks</t>
-  </si>
-  <si>
-    <t>RecipeDef+RB_Make_GlassFromChunks.description</t>
   </si>
   <si>
     <r>
@@ -184,6 +215,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>RecipeDef+RB_Make_GlassFromChunks.description</t>
+  </si>
+  <si>
     <t>RB_Make_GlassFromChunks.description</t>
   </si>
   <si>
@@ -200,9 +234,6 @@
   </si>
   <si>
     <t>Making glass.</t>
-  </si>
-  <si>
-    <t>RecipeDef+RB_Make_BallisticGlassFromChunks.label</t>
   </si>
   <si>
     <r>
@@ -217,13 +248,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>RecipeDef+RB_Make_BallisticGlassFromChunks.label</t>
+  </si>
+  <si>
     <t>RB_Make_BallisticGlassFromChunks.label</t>
   </si>
   <si>
     <t>make ballistic glass</t>
-  </si>
-  <si>
-    <t>RecipeDef+RB_Make_BallisticGlassFromChunks.description</t>
   </si>
   <si>
     <r>
@@ -238,6 +269,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>RecipeDef+RB_Make_BallisticGlassFromChunks.description</t>
+  </si>
+  <si>
     <t>RB_Make_BallisticGlassFromChunks.description</t>
   </si>
   <si>
@@ -254,9 +288,6 @@
   </si>
   <si>
     <t>Making ballistic glass.</t>
-  </si>
-  <si>
-    <t>TerrainDef+RB_FinePlankWood.description</t>
   </si>
   <si>
     <r>
@@ -271,6 +302,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>TerrainDef+RB_FinePlankWood.description</t>
+  </si>
+  <si>
     <t>TerrainDef</t>
   </si>
   <si>
@@ -667,12 +701,24 @@
     <t>RB_GlassAutodoor.description</t>
   </si>
   <si>
-    <t>ModSettingsFramework.ModOptionCategoryDef+RB_Floors.label</t>
+    <t>Divides rooms. Powered operation allows people to move through the door without slowing down.</t>
   </si>
   <si>
     <t>ThingDef+RB_LargeOrnateDoor.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>방을 나눕니다. 전기로 작동하며 문 통과시 이동속도 감소가 적거나 없습니다. 빛을 차단하지 않습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>RB_LargeOrnateDoor.label</t>
   </si>
   <si>
@@ -992,6 +1038,30 @@
   </si>
   <si>
     <t>Wall armor requires pre-existing wall to be constructed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>벽 위에 설치해야 합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>ThingDef+ElectricSmelter.description</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1006,6 +1076,24 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>ElectricSmelter.description</t>
+  </si>
+  <si>
+    <t>Extracts usable metal from slag chunks and other mixed metal items, as well as refines stone chunks into glass. Consumes a lot of power.</t>
+  </si>
+  <si>
+    <t>ModSettingsFramework.ModOptionCategoryDef+RB_Floors.label</t>
+  </si>
+  <si>
+    <t>RB_Floors.label</t>
+  </si>
+  <si>
+    <t>Floors</t>
+  </si>
+  <si>
+    <t>ModSettingsFramework.ModOptionCategoryDef+RB_Integrations.label</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1013,9 +1101,18 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>벽 위에 설치해야 합니다.</t>
+      <t>바닥</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB_Integrations.label</t>
+  </si>
+  <si>
+    <t>Mod Integrations</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_FloorLamp.label</t>
   </si>
   <si>
     <r>
@@ -1025,38 +1122,11 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>ThingDef+ElectricSmelter.description</t>
+      <t>모드 통합</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>ElectricSmelter.description</t>
-  </si>
-  <si>
-    <t>Extracts usable metal from slag chunks and other mixed metal items, as well as refines stone chunks into glass. Consumes a lot of power.</t>
-  </si>
-  <si>
-    <t>RB_Floors.label</t>
-  </si>
-  <si>
-    <t>Divides rooms. Powered operation allows people to move through the door without slowing down.</t>
-  </si>
-  <si>
-    <t>Floors</t>
-  </si>
-  <si>
-    <t>ModSettingsFramework.ModOptionCategoryDef+RB_Integrations.label</t>
-  </si>
-  <si>
-    <t>RB_Integrations.label</t>
-  </si>
-  <si>
-    <t>Mod Integrations</t>
-  </si>
-  <si>
-    <t>ThingDef+RB_FloorLamp.label</t>
-  </si>
-  <si>
     <t>RB_FloorLamp.label</t>
   </si>
   <si>
@@ -1066,6 +1136,18 @@
     <t>ThingDef+RB_FloorLamp.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>바닥등</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>RB_FloorLamp.description</t>
   </si>
   <si>
@@ -1075,6 +1157,18 @@
     <t>ThingDef+RB_ReinforcedGlassAutodoor.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>전기를 사용하여 공간을 밝히는 바닥 설치형 전등입니다. 일반 전등보다 덜 강력하지만 어떤 바닥에도 설치할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>RB_ReinforcedGlassAutodoor.label</t>
   </si>
   <si>
@@ -1084,12 +1178,36 @@
     <t>ThingDef+RB_ReinforcedGlassAutodoor.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>강화 유리 자동문</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>RB_ReinforcedGlassAutodoor.description</t>
   </si>
   <si>
     <t>ThingDef+RB_DoubleDoor.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>방을 나눕니다. 전기로 작동하며 문 통과시 이동속도 감소가 적거나 없습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>RB_DoubleDoor.label</t>
   </si>
   <si>
@@ -1099,6 +1217,18 @@
     <t>ThingDef+RB_DoubleDoor.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이중문</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>RB_DoubleDoor.description</t>
   </si>
   <si>
@@ -1108,6 +1238,18 @@
     <t>ThingDef+RB_DoubleAutodoor.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>방을 나눕니다. 수동으로 열고 닫으며 문 통과시 이동속도가 느려집니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>RB_DoubleAutodoor.label</t>
   </si>
   <si>
@@ -1117,9 +1259,24 @@
     <t>ThingDef+RB_DoubleAutodoor.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이중 자동문</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>RB_DoubleAutodoor.description</t>
   </si>
   <si>
+    <t>방을 나눕니다. 전기로 작동하며 문 통과시 이동속도 감소가 적거나 없습니다.</t>
+  </si>
+  <si>
     <t>ThingDef+RB_ACUnitFloor.label</t>
   </si>
   <si>
@@ -1135,6 +1292,18 @@
     <t>ThingDef+RB_ACUnitFloor.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>바닥 냉방기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>RB_ACUnitFloor.description</t>
   </si>
   <si>
@@ -1144,6 +1313,18 @@
     <t>ThingDef+RB_Ship_Beam_Glass.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>바닥에 설치할 수 있는 냉방기입니다. 방의 현재 온도에 따라서 뜨겁거나 찬 공기를 같은 방향으로 내보낼 수 있습니다.\n\n독립 제어 모드로 설정하지 않으면 방의 온도를 중앙 제어기에서 지정한 온도에 맞추려고 할 것입니다. 공조 파이프를 통해 공조 제어기와 연결되어야 합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>RB_Ship_Beam_Glass.label</t>
   </si>
   <si>
@@ -1156,12 +1337,27 @@
     <t>ThingDef+RB_Ship_Beam_Glass.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>선체 (유리)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>RB_Ship_Beam_Glass.description</t>
   </si>
   <si>
     <t>The outer structural elements of a ship's hull. Does not include conduits for power or coolant.</t>
   </si>
   <si>
+    <t>함선의 외부 골조입니다. 전선 및 냉각 배관이 포함되지 않았습니다.</t>
+  </si>
+  <si>
     <t>ThingDef+RB_Ship_Beam_Viewport.label</t>
   </si>
   <si>
@@ -1174,114 +1370,373 @@
     <t>ThingDef+RB_Ship_Beam_Viewport.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>선체 (전망창)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>RB_Ship_Beam_Viewport.description</t>
   </si>
   <si>
-    <t>바닥</t>
+    <t>Divides rooms. Powered operation allows people to move through the door without slowing down. Does not block light.</t>
+  </si>
+  <si>
+    <t>방을 나눕니다. 전기로 작동하며 문 통과시 이동속도 감소가 적거나 없습니다. 빛을 차단하지 않습니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_CellWall.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>고철 덩어리나 금속이 혼합된 물품에서 금속을 추출하거나, 바위 덩어리를 유리로 가공합니다. 전기가 많이 소비됩니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB_CellWall.label</t>
+  </si>
+  <si>
+    <t>cell wall</t>
+  </si>
+  <si>
+    <t>ThingDef+RB_CellWall.description</t>
+  </si>
+  <si>
+    <t>RB_CellWall.description</t>
+  </si>
+  <si>
+    <t>TerrainDef+RB_PavedTile_Transhumanist.label</t>
+  </si>
+  <si>
+    <t>RB_PavedTile_Transhumanist.label</t>
+  </si>
+  <si>
+    <t>Ideology</t>
+  </si>
+  <si>
+    <t>paved hex tile</t>
+  </si>
+  <si>
+    <t>TerrainDef+RB_PavedTile_Transhumanist.description</t>
+  </si>
+  <si>
+    <t>RB_PavedTile_Transhumanist.description</t>
+  </si>
+  <si>
+    <t>Concrete tiles with a hexagonal pattern for that ultra-technological look. Cheap, but neutral in terms of looks and slow to build.</t>
+  </si>
+  <si>
+    <t>TerrainDef+RB_WoodPlankFloor_Transhumanist.label</t>
+  </si>
+  <si>
+    <t>RB_WoodPlankFloor_Transhumanist.label</t>
+  </si>
+  <si>
+    <t>wood hex floor</t>
+  </si>
+  <si>
+    <t>TerrainDef+RB_WoodPlankFloor_Transhumanist.description</t>
+  </si>
+  <si>
+    <t>RB_WoodPlankFloor_Transhumanist.description</t>
+  </si>
+  <si>
+    <t>Wood plank flooring with a hexagonal pattern for that ultra-technological look. While it is quick to lay, it is also very flammable.</t>
+  </si>
+  <si>
+    <t>쇠창살로 이루어진 지나갈 수 없는 벽입니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>모드 통합</t>
+    <t>An impassable wall consisting of metal bars.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>바닥등</t>
+    <t>금속 격벽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전기를 사용하여 공간을 밝히는 바닥 설치형 전등입니다. 일반 전등보다 덜 강력하지만 어떤 바닥에도 설치할 수 있습니다.</t>
+    <t>포장된 육각 타일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>강화 유리 자동문</t>
+    <t>나무 육각 바닥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>방을 나눕니다. 전기로 작동하며 문 통과시 이동속도 감소가 적거나 없습니다.</t>
-  </si>
-  <si>
-    <t>방을 나눕니다. 전기로 작동하며 문 통과시 이동속도 감소가 적거나 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이중문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이중 자동문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방을 나눕니다. 수동으로 열고 닫으며 문 통과시 이동속도가 느려집니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방을 나눕니다. 전기로 작동하며 문 통과시 이동속도 감소가 적거나 없습니다. 빛을 차단하지 않습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닥 냉방기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닥에 설치할 수 있는 냉방기입니다. 방의 현재 온도에 따라서 뜨겁거나 찬 공기를 같은 방향으로 내보낼 수 있습니다.\n\n독립 제어 모드로 설정하지 않으면 방의 온도를 중앙 제어기에서 지정한 온도에 맞추려고 할 것입니다. 공조 파이프를 통해 공조 제어기와 연결되어야 합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>함선의 외부 골조입니다. 전선 및 냉각 배관이 포함되지 않았습니다.</t>
-  </si>
-  <si>
-    <t>선체 (유리)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>선체 (전망창)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고철 덩어리나 금속이 혼합된 물품에서 금속을 추출하거나, 바위 덩어리를 유리로 가공합니다. 전기가 많이 소비됩니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThingDef</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThingDef+ElectricSmelter.description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽 위에 설치해야 합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방을 나눕니다. 전기로 작동하며 문 통과시 이동속도 감소가 적거나 없습니다. 빛을 차단하지 않습니다.</t>
-  </si>
-  <si>
-    <t>Divides rooms. Powered operation allows people to move through the door without slowing down. Does not block light.</t>
-  </si>
-  <si>
-    <t>방탄 유리 제작 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방탄 유리 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유리 제작 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유리 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽</t>
+    <t>육각형 패턴의 콘크리트 타일로, 초첨단 기술적 외관을 제공합니다. 저렴하지만 외관은 중립적이며 건설 속도가 느립니다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초첨단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기술적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>외관을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>육각형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>패턴의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바닥재입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설치가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빠르지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">매우 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취약합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1289,7 +1744,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1309,19 +1764,45 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="돋움"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1359,12 +1840,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1666,14 +2148,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="C79" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="64.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.81640625" style="1" bestFit="1" customWidth="1"/>
@@ -1685,7 +2167,7 @@
     <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +2187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1722,7 +2204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1736,12 +2218,12 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1753,12 +2235,12 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -1770,12 +2252,12 @@
         <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -1790,7 +2272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1804,12 +2286,12 @@
         <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -1821,12 +2303,12 @@
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
@@ -1841,7 +2323,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1855,12 +2337,12 @@
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>45</v>
@@ -1875,7 +2357,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -1892,7 +2374,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1909,7 +2391,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -1926,7 +2408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -1943,7 +2425,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -1960,7 +2442,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -1977,7 +2459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -1994,7 +2476,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -2011,7 +2493,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -2028,7 +2510,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -2045,7 +2527,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -2062,7 +2544,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -2079,7 +2561,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
@@ -2096,7 +2578,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>99</v>
       </c>
@@ -2113,7 +2595,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>103</v>
       </c>
@@ -2130,7 +2612,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -2147,7 +2629,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
@@ -2164,7 +2646,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>115</v>
       </c>
@@ -2181,7 +2663,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>119</v>
       </c>
@@ -2198,7 +2680,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
@@ -2215,7 +2697,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
@@ -2232,7 +2714,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
@@ -2249,7 +2731,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>135</v>
       </c>
@@ -2266,7 +2748,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>139</v>
       </c>
@@ -2283,7 +2765,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>143</v>
       </c>
@@ -2300,7 +2782,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>147</v>
       </c>
@@ -2317,7 +2799,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>151</v>
       </c>
@@ -2334,7 +2816,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>155</v>
       </c>
@@ -2351,7 +2833,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
@@ -2368,7 +2850,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>163</v>
       </c>
@@ -2385,7 +2867,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>167</v>
       </c>
@@ -2402,7 +2884,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>171</v>
       </c>
@@ -2419,7 +2901,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>175</v>
       </c>
@@ -2430,13 +2912,13 @@
         <v>176</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>178</v>
       </c>
@@ -2444,770 +2926,885 @@
         <v>123</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F75" s="1" t="s">
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F76" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F78" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F79" s="1" t="s">
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F80" s="1" t="s">
+      <c r="D86" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F81" s="1" t="s">
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="F88" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F93" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3219,7 +3816,7 @@
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="64.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.81640625" style="1" bestFit="1" customWidth="1"/>
@@ -3227,10 +3824,11 @@
     <col min="4" max="4" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="36.453125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3250,7 +3848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3267,7 +3865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3281,12 +3879,12 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -3298,12 +3896,12 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -3315,12 +3913,12 @@
         <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -3335,7 +3933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3349,12 +3947,12 @@
         <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -3366,12 +3964,12 @@
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
@@ -3386,7 +3984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3400,12 +3998,12 @@
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>45</v>
@@ -3420,7 +4018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -3437,7 +4035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -3454,7 +4052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -3471,7 +4069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -3488,7 +4086,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -3505,7 +4103,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -3522,7 +4120,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -3539,7 +4137,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -3556,7 +4154,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -3573,7 +4171,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -3590,7 +4188,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -3607,7 +4205,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -3624,7 +4222,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
@@ -3641,7 +4239,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>99</v>
       </c>
@@ -3658,7 +4256,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>103</v>
       </c>
@@ -3675,7 +4273,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -3692,7 +4290,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
@@ -3709,7 +4307,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>115</v>
       </c>
@@ -3726,7 +4324,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>119</v>
       </c>
@@ -3743,7 +4341,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
@@ -3760,7 +4358,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
@@ -3777,7 +4375,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
@@ -3794,7 +4392,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>135</v>
       </c>
@@ -3811,7 +4409,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>139</v>
       </c>
@@ -3828,7 +4426,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>143</v>
       </c>
@@ -3845,7 +4443,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>147</v>
       </c>
@@ -3862,7 +4460,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>151</v>
       </c>
@@ -3879,7 +4477,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>155</v>
       </c>
@@ -3896,7 +4494,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
@@ -3913,7 +4511,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>163</v>
       </c>
@@ -3930,7 +4528,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>167</v>
       </c>
@@ -3947,7 +4545,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>171</v>
       </c>
@@ -3964,7 +4562,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>175</v>
       </c>
@@ -3975,13 +4573,13 @@
         <v>176</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>178</v>
       </c>
@@ -3989,478 +4587,478 @@
         <v>123</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
   </sheetData>
